--- a/数据整理/stocks/A股/上证主板/600104-上汽集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/600104-上汽集团.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3479,4 +3480,2148 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H56"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>510810</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中证上海国企ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>81.34</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.88</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.2230</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004854</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发中证全指汽车指数A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>19.51</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.02</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>13.09</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.5539</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>160225</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰国证新能源汽车指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>31.39</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1081</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004855</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发中证全指汽车指数C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.02</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>13.09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5589</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009880</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>安信成长动力一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.32</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.72</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4494</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>320006</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>诺安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.38</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>71.57</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4395</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160716</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实中证锐联基本面50指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.70</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2921</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011856</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>安信均衡成长18个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>71.97</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2587</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>510160</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方中证南方小康产业ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.87</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2225</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>516110</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰中证800汽车与零部件ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>96.56</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>10.18</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2026</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001287</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>安信优势增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>80.53</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1726</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>233009</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>大摩多因子精选策略混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.21</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1685</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008891</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>安信价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.99</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1624</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001758</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实研究增强灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1415</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005571</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>69.25</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0765</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002036</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>安信优势增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>80.53</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0750</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005273</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华商可转债债券A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>36.94</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0729</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>510020</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>博时上证超级大盘ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>97.24</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0720</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001304</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>建信鑫安回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>56.26</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0691</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>159936</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>广发中证全指可选消费ETF指数</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>98.02</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0517</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>003446</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>英大睿鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0482</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>003447</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>英大睿鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0476</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009653</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>大成丰享回报混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>22.98</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0431</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>003980</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中银证券瑞益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>67.77</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>512750</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>嘉实中证锐联基本面50ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>99.51</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009493</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>大成尊享18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>27.63</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005572</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>69.25</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>515500</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>海富通中证长三角领先ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>004301</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国寿安保稳信混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>22.50</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001678</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>英大国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>88.41</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001607</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>英大策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005284</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华商可转债债券C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>36.94</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>008892</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>安信价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>86.99</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>003739</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>新华鑫弘灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>38.53</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>002449</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>民生加银量化中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>40.09</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>519937</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>长信先锐混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>24.83</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>585001</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>东吴中证新兴</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011857</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>安信均衡成长18个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>71.97</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>002634</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华宝未来主导产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>80.32</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>003981</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中银证券瑞益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>67.77</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>006022</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>富国大盘价值量化精选混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>89.35</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>160725</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>嘉实中证锐联基本面50指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001139</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华安新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>26.35</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>009654</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>大成丰享回报混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>22.98</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>009494</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>大成尊享18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>27.63</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>006349</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>中金MSCI中国A股国际价值指数A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>008838</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>德邦量化对冲策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>28.19</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>004696</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>东兴量化优享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>001608</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>英大策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>165806</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>东吴沪深300指数A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>004302</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>国寿安保稳信混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>22.50</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>008918</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>长信先锐混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>24.83</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>008839</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>德邦量化对冲策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>28.19</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>006350</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>中金MSCI中国A股国际价值指数C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>165810</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>东吴沪深300指数C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600104-上汽集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/600104-上汽集团.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5624,4 +5625,1390 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>510810</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中证上海国企ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>80.45</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.40</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.2188</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004854</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发中证全指汽车指数A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>25.83</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>12.22</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.1564</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002666</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>42.21</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.6040</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>160225</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰国证新能源汽车指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>30.32</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0733</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004855</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发中证全指汽车指数C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>12.22</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8395</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002667</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>16.75</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6365</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>320006</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>诺安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.60</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>76.19</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5720</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>240008</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华宝收益增长混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.92</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4613</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012069</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>天弘安康颐享12个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>31.63</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>20.07</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2436</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>510160</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方中证南方小康产业ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.20</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1743</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>516110</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰中证800汽车与零部件ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>96.64</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.07</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1560</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008347</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中信建投价值甄选混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>71.15</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1314</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003822</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中信建投行业轮换混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>81.42</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1211</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001304</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>建信鑫安回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>42.62</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0717</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005571</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0698</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>159872</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华中证车联网主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>97.38</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0657</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>510020</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>博时上证超级大盘ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>99.03</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006022</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国大盘价值量化精选混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.97</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0570</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007468</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中信建投策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>81.37</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0495</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>003823</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中信建投行业轮换混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>81.42</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0460</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>159936</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发中证全指可选消费ETF指数</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>97.47</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>003446</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>英大睿鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>003447</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>英大睿鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0415</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>003980</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中银证券瑞益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>79.46</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0383</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>515500</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>海富通中证长三角领先ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005572</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>007469</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中信建投策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>81.37</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>516870</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>银华中证800汽车与零部件交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>96.78</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>008348</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中信建投价值甄选混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>71.15</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>012070</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>天弘安康颐享12个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>20.07</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>003981</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中银证券瑞益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>79.46</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>006349</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中金MSCI中国A股国际价值指数A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>004695</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>东兴未来价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>82.65</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>007550</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>东兴未来价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>82.65</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>006350</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中金MSCI中国A股国际价值指数C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600104-上汽集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/600104-上汽集团.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7011,4 +7012,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>35</v>
+      </c>
+      <c r="D2" t="n">
+        <v>16.13</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>55</v>
+      </c>
+      <c r="D3" t="n">
+        <v>15.04</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>26</v>
+      </c>
+      <c r="D4" t="n">
+        <v>11.87</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>51</v>
+      </c>
+      <c r="D5" t="n">
+        <v>20.14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600104-上汽集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/600104-上汽集团.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7020,7 +7021,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7031,17 +7032,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -7051,14 +7072,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>35</v>
-      </c>
-      <c r="D2" t="n">
-        <v>16.13</v>
+          <t>510810</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中证上海国企ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>74.12</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.76</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.9074</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -7067,14 +7110,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>55</v>
-      </c>
-      <c r="D3" t="n">
-        <v>15.04</v>
+          <t>004854</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发中证全指汽车指数A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>27.55</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>15.57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.2895</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -7083,14 +7148,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>26</v>
-      </c>
-      <c r="D4" t="n">
-        <v>11.87</v>
+          <t>011820</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴业兴智一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>35.76</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.80</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3839</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -7099,13 +7186,1595 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>004855</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发中证全指汽车指数C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>15.57</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2145</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009539</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>兴业睿进混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>35.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.40</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0115</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>320006</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>诺安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.44</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>79.53</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7432</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>240008</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华宝收益增长混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.73</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5000</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011821</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>兴业兴智一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12.03</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>80.80</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4656</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001914</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中信建投聚利混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>18.35</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>39.02</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3817</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>160716</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实中证锐联基本面50指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10.93</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3782</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012069</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>天弘安康颐享12个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>31.63</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>22.77</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3005</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005571</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.65</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2962</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>516110</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国泰中证800汽车与零部件ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>98.56</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>12.29</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2692</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011017</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏扬景明一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>51.04</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>24.40</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2501</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>510150</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商上证消费80ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>99.64</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2481</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003980</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中银证券瑞益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>79.64</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2451</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001623</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>兴业国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.06</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2063</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>510160</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>南方中证南方小康产业ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>98.96</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1985</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005706</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>兴业龙腾双益平衡混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>29.90</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1237</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005870</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏华沪深300指数增强</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1012</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002597</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>兴业成长动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>88.57</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0647</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>159936</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>广发中证全指可选消费ETF指数</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>98.14</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0632</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011243</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>万家惠裕回报6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>24.29</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0583</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010043</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>天弘安康颐和混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>22.16</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0522</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>512750</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>嘉实中证锐联基本面50ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>99.05</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0443</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001074</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0391</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>160725</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>嘉实中证锐联基本面50指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>000708</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华安安享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>20.58</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>159872</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>鹏华中证车联网主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>161037</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>富国中证高端制造指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005572</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>86.65</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>515500</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>海富通中证长三角领先ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>96.04</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>012070</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>天弘安康颐享12个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>22.77</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010044</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>天弘安康颐和混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>22.16</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>003981</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中银证券瑞益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>79.64</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009540</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>兴业睿进混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>89.40</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>005264</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>国都多策略混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>74.05</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>006531</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>004695</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>东兴未来价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>81.07</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011244</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>万家惠裕回报6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>24.29</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>007550</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>东兴未来价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>81.07</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>006845</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中信建投聚利混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>39.02</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>42</v>
+      </c>
+      <c r="D2" t="n">
+        <v>19.06</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>35</v>
+      </c>
+      <c r="D3" t="n">
+        <v>16.13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>55</v>
+      </c>
+      <c r="D4" t="n">
+        <v>15.04</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>26</v>
+      </c>
+      <c r="D5" t="n">
+        <v>11.87</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>51</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>20.14</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600104-上汽集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/600104-上汽集团.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8673,7 +8674,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8684,17 +8685,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -8704,14 +8725,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>42</v>
-      </c>
-      <c r="D2" t="n">
-        <v>19.06</v>
+          <t>510810</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中证上海国企ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>68.43</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.71</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.2281</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -8720,14 +8763,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>35</v>
-      </c>
-      <c r="D3" t="n">
-        <v>16.13</v>
+          <t>004854</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发中证全指汽车指数A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>22.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>16.73</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.6823</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -8736,14 +8801,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>55</v>
-      </c>
-      <c r="D4" t="n">
-        <v>15.04</v>
+          <t>011820</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴业兴智一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>30.87</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>73.07</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3614</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -8752,14 +8839,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>26</v>
-      </c>
-      <c r="D5" t="n">
-        <v>11.87</v>
+          <t>009707</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信新兴制造混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>33.56</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.92</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1142</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -8768,13 +8877,1229 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>001718</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银瑞信物流产业股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>32.39</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.93</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0430</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004855</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发中证全指汽车指数C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>16.73</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0222</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011821</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>兴业兴智一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.53</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>73.07</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4644</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160716</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实中证锐联基本面50指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.93</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3159</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>090007</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成策略回报混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11.30</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>73.51</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3108</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009539</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>兴业睿进混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>77.03</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2548</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>516110</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰中证800汽车与零部件ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>97.85</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>13.25</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2306</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009708</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>工银瑞信新兴制造混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.92</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2264</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>510150</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>招商上证消费80ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>99.83</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2035</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>510160</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>南方中证南方小康产业ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>99.43</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1615</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011243</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>万家惠裕回报6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>23.04</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0749</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005571</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0622</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>673020</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>西部利得成长精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0520</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>159936</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发中证全指可选消费ETF指数</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>97.88</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0518</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010151</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>西藏东财消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>77.66</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0453</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>512750</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>嘉实中证锐联基本面50ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>99.51</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>160725</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>嘉实中证锐联基本面50指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>161037</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>富国中证高端制造指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002224</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中邮绝对收益策略定期开放混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>59.62</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005572</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>159872</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>鹏华中证车联网主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>96.38</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>165531</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>信诚多策略灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>68.43</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010152</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>西藏东财消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>77.66</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>515500</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>海富通中证长三角领先ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>95.16</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009540</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>兴业睿进混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>77.03</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>003981</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中银证券瑞益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011244</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>万家惠裕回报6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>23.04</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>004695</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>东兴未来价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>83.63</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>007550</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>东兴未来价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>83.63</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>33</v>
+      </c>
+      <c r="D2" t="n">
+        <v>16.13</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>42</v>
+      </c>
+      <c r="D3" t="n">
+        <v>19.06</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>35</v>
+      </c>
+      <c r="D4" t="n">
+        <v>16.13</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>55</v>
+      </c>
+      <c r="D5" t="n">
+        <v>15.04</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>26</v>
+      </c>
+      <c r="D6" t="n">
+        <v>11.87</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>51</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>20.14</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600104-上汽集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/600104-上汽集团.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -9982,7 +9983,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9993,17 +9994,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -10013,14 +10034,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>33</v>
-      </c>
-      <c r="D2" t="n">
-        <v>16.13</v>
+          <t>510810</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中证上海国企ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>69.44</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.84</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.3608</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -10029,14 +10072,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>42</v>
-      </c>
-      <c r="D3" t="n">
-        <v>19.06</v>
+          <t>004855</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发中证全指汽车指数C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.86</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>12.72</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.7806</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -10045,14 +10110,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>35</v>
-      </c>
-      <c r="D4" t="n">
-        <v>16.13</v>
+          <t>004854</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发中证全指汽车指数A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21.52</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>12.72</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.7373</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -10061,14 +10148,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>55</v>
-      </c>
-      <c r="D5" t="n">
-        <v>15.04</v>
+          <t>516110</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰中证800汽车与零部件ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.73</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>97.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>11.32</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9882</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -10077,14 +10186,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>26</v>
-      </c>
-      <c r="D6" t="n">
-        <v>11.87</v>
+          <t>012069</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>天弘安康颐享12个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>27.66</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>25.57</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5809</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -10093,13 +10224,1243 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>007484</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>信达澳银核心科技混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>34.15</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4679</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>090007</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成策略回报混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.38</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>76.56</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3228</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160716</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实中证锐联基本面50指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.47</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2816</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>510150</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商上证消费80ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>10.43</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.62</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2743</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010043</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>天弘安康颐和混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>19.05</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>22.49</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2629</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>510160</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方中证南方小康产业ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>99.38</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1835</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>560003</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>益民创新优势混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>65.89</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1735</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000646</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华润元大量化优选混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>66.39</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1018</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>159936</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发中证全指可选消费ETF指数</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>97.99</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0724</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005571</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0547</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010044</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>天弘安康颐和混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>22.49</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0406</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007806</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>建信MSCI中国A股指数增强A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0377</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>003980</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中银证券瑞益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>87.11</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0357</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012070</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>天弘安康颐享12个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>25.57</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>000042</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中证财通中国可持续发展100 (ECPI ESG) 指数增强A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004617</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>建信鑫稳回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>30.60</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011243</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>万家惠裕回报6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>29.67</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>007807</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>建信MSCI中国A股指数增强C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>515500</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>海富通中证长三角领先ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>97.08</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>159872</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>鹏华中证车联网主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>96.73</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005572</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>007827</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华润元大量化优选混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>66.39</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>160725</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>嘉实中证锐联基本面50指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>004618</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>建信鑫稳回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>30.60</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>003981</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中银证券瑞益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>87.11</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011244</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>万家惠裕回报6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>29.67</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>004695</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>东兴未来价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>82.70</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>003184</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中证财通中国可持续发展100 (ECPI ESG) 指数增强C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>007550</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>东兴未来价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>82.70</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>34</v>
+      </c>
+      <c r="D2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>33</v>
+      </c>
+      <c r="D3" t="n">
+        <v>16.13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>42</v>
+      </c>
+      <c r="D4" t="n">
+        <v>19.06</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>35</v>
+      </c>
+      <c r="D5" t="n">
+        <v>16.13</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>55</v>
+      </c>
+      <c r="D6" t="n">
+        <v>15.04</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>26</v>
+      </c>
+      <c r="D7" t="n">
+        <v>11.87</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>51</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>20.14</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600104-上汽集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/600104-上汽集团.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D2" t="n">
-        <v>15</v>
+        <v>10.29</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D3" t="n">
-        <v>16.13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D4" t="n">
-        <v>19.06</v>
+        <v>16.13</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D5" t="n">
-        <v>16.13</v>
+        <v>19.06</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="D6" t="n">
-        <v>15.04</v>
+        <v>16.13</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="D7" t="n">
-        <v>11.87</v>
+        <v>15.04</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>26</v>
+      </c>
+      <c r="D8" t="n">
+        <v>11.87</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>51</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>20.14</v>
       </c>
     </row>
@@ -600,6 +617,1424 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>510810</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中证上海国企ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>63.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.46</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.5297</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004854</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发中证全指汽车指数A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.34</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>13.26</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.0341</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004855</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发中证全指汽车指数C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.15</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>13.26</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3459</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>516110</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰中证800汽车与零部件ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>97.46</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>11.33</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6605</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>510150</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商上证消费80ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.46</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.70</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2842</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>090007</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成策略回报混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.90</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>61.86</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2396</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012069</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>天弘安康颐享12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>20.65</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>20.51</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2230</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>560003</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>益民创新优势混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.16</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1574</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>510160</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方中证南方小康产业ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.43</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1491</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011977</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>格林研究优选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1066</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013463</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成致远优势一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>60.88</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0916</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000646</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华润元大量化优选混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>73.62</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0725</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>014179</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中银证券远见价值混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0560</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>159936</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发中证全指可选消费ETF指数</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>98.30</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010764</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>九泰锐升混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>54.42</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0398</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000042</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中证财通中国可持续发展100 (ECPI ESG) 指数增强A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0327</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005571</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>159872</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏华中证车联网主题ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>97.61</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>003980</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中银证券瑞益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011243</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>万家惠裕回报6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>27.67</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>007807</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>建信MSCI中国A股指数增强C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005572</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>515500</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>海富通中证长三角领先ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>97.12</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>007806</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>建信MSCI中国A股指数增强A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>012070</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>天弘安康颐享12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>20.51</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005083</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>诺德量化蓝筹增强混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011978</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>格林研究优选混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>007827</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华润元大量化优选混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>73.62</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>003981</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中银证券瑞益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>014180</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中银证券远见价值混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>013464</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>大成致远优势一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>60.88</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011244</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>万家惠裕回报6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>27.67</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>004695</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>东兴未来价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>82.42</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>003184</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中证财通中国可持续发展100 (ECPI ESG) 指数增强C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>007550</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>东兴未来价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>82.42</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005082</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>诺德量化蓝筹增强混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1943,7 +3378,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3251,7 +4686,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4903,7 +6338,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6289,7 +7724,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8433,7 +9868,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9477,7 +10912,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600104-上汽集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/600104-上汽集团.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="D2" t="n">
-        <v>10.29</v>
+        <v>9.99</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D3" t="n">
-        <v>15</v>
+        <v>10.29</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D4" t="n">
-        <v>16.13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D5" t="n">
-        <v>19.06</v>
+        <v>16.13</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D6" t="n">
-        <v>16.13</v>
+        <v>19.06</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="D7" t="n">
-        <v>15.04</v>
+        <v>16.13</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="D8" t="n">
-        <v>11.87</v>
+        <v>15.04</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,2022 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>26</v>
+      </c>
+      <c r="D9" t="n">
+        <v>11.87</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>51</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>20.14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>510810</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中证上海国企ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>101.40</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.87</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.2235</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004854</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发中证全指汽车指数A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>33.46</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>13.53</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.5271</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>160225</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰国证新能源汽车指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>29.73</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2070</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>360007</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>光大保德信优势配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15.38</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.13</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9659</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>240010</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华宝行业精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>18.06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>80.19</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7061</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004855</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发中证全指汽车指数C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>13.53</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4925</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>320006</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>诺安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.19</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>79.23</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4890</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160716</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实中证锐联基本面50指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12.73</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4341</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009911</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长信价值蓝筹两年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>68.57</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2941</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005392</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长信价值蓝筹两年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>68.57</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2918</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>510160</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方中证南方小康产业ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>98.43</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2866</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005526</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>工银瑞信新生代消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2688</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>519668</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>银河竞争优势成长混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>82.61</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1867</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001758</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实研究增强灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1358</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>510150</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商上证消费80ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>99.06</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1275</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>515500</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>海富通中证长三角领先ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1099</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009486</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>光大保德信瑞和混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>72.94</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1039</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001707</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>诺安高端制造股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>83.94</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>9.10</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0992</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005961</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>博时量化价值股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.33</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0980</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005960</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博时量化价值股票A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.33</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0963</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>159936</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发中证全指可选消费ETF指数</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>98.99</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0886</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005674</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>诺德消费升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>88.12</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0838</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>510020</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>博时上证超级大盘ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>98.44</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0720</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>003713</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0649</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>512750</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>嘉实中证锐联基本面50ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>98.98</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0627</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>501310</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0610</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005294</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>诺德新宜灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>28.19</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0604</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>003714</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0574</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>000042</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中证财通中国可持续发展100 (ECPI ESG) 指数增强A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0475</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>360010</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>光大保德信均衡精选混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>80.90</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0438</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001219</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>上投摩根动态多因子策略混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0438</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>003447</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>英大睿鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0418</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>003446</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>英大睿鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0407</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>005571</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>74.65</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001607</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>英大策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>003980</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中银证券瑞益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>006535</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>恒生前海恒锦裕利混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>29.92</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>001967</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华宝转型升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>89.24</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>008050</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>同泰慧择混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>006536</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>恒生前海恒锦裕利混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>29.92</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>005572</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>74.65</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>006603</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>嘉实互融精选股票</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009595</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>山西证券裕盛一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>007397</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>160725</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>嘉实中证锐联基本面50指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>003981</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>中银证券瑞益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>008051</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>同泰慧择混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>004696</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>东兴量化优享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>001608</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>英大策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>009487</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>光大保德信瑞和混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>72.94</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>003184</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>中证财通中国可持续发展100 (ECPI ESG) 指数增强C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +2626,858 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>510810</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中证上海国企ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>65.67</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.06</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.5181</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004854</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发中证全指汽车指数A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>14.09</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.1248</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004855</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发中证全指汽车指数C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.13</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>14.09</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5682</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>516110</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰中证800汽车与零部件ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>97.15</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>10.29</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8109</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>510150</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商上证消费80ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.32</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.63</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2570</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>510160</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方中证南方小康产业ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.44</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1645</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>560003</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>益民创新优势混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>79.31</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1536</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011977</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>格林研究优选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.76</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1073</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013463</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成致远优势一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>66.62</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0642</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>159936</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发中证全指可选消费ETF指数</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>98.12</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0446</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>673020</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>西部利得成长精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>80.98</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0404</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005571</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>159872</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华中证车联网主题ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>97.70</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000042</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中证财通中国可持续发展100 (ECPI ESG) 指数增强A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011243</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>万家惠裕回报6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>29.05</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005572</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011978</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>格林研究优选混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>86.76</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>013464</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>大成致远优势一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>66.62</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011244</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>万家惠裕回报6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>29.05</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001866</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>北信瑞丰新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>003184</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中证财通中国可持续发展100 (ECPI ESG) 指数增强C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2034,7 +4895,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3378,7 +6239,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4686,7 +7547,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6338,7 +9199,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7724,7 +10585,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9868,7 +12729,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10910,1996 +13771,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H52"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>510810</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>汇添富中证上海国企ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>101.40</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>97.87</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>8.11</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>8.2235</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>004854</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>广发中证全指汽车指数A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>33.46</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.59</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>13.53</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>4.5271</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>160225</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>国泰国证新能源汽车指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>29.73</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.88</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.06</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.2070</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>360007</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>光大保德信优势配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>15.38</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>85.13</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>6.28</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.9659</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>240010</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华宝行业精选混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>18.06</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>80.19</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.7061</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>004855</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>广发中证全指汽车指数C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>3.64</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.59</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>13.53</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.4925</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>320006</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>诺安灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>11.19</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>79.23</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.37</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.4890</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>160716</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>嘉实中证锐联基本面50指数(LOF)A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>12.73</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>94.50</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.41</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.4341</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>009911</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>长信价值蓝筹两年定期开放灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>5.27</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>68.57</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>5.58</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.2941</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>005392</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>长信价值蓝筹两年定期开放灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>5.23</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>68.57</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>5.58</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.2918</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>510160</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>南方中证南方小康产业ETF</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>4.06</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>98.43</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>7.06</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.2866</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>005526</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>工银瑞信新生代消费灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>6.54</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>91.28</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4.11</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.2688</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>519668</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>银河竞争优势成长混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>3.89</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>82.61</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>4.80</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.1867</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>001758</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>嘉实研究增强灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>3.64</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>92.61</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.73</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.1358</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>510150</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>招商上证消费80ETF</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>5.27</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>99.06</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2.42</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.1275</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>515500</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>海富通中证长三角领先ETF</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>2.22</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>94.64</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.1099</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>009486</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>光大保德信瑞和混合A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>2.44</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>72.94</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>4.26</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.1039</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>001707</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>诺安高端制造股票</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>83.94</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>9.10</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0992</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>005961</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>博时量化价值股票C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>5.73</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>89.33</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>1.71</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0980</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>005960</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>博时量化价值股票A</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>5.63</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>89.33</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>1.71</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0963</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>159936</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>广发中证全指可选消费ETF指数</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>3.87</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>98.99</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>2.29</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0886</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>005674</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>诺德消费升级灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>2.66</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>88.12</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>3.15</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0838</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>510020</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>博时上证超级大盘ETF</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>1.51</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>98.44</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>4.77</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0720</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>003713</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>英大睿盛灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>1.64</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>93.99</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>3.96</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0649</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>512750</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>嘉实中证锐联基本面50ETF</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>1.76</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>98.98</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>3.56</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0627</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>501310</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>华宝标普沪港深中国增强价值指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>1.56</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>94.52</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0610</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>005294</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>诺德新宜灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>6.49</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>28.19</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0604</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>003714</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>英大睿盛灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>93.99</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>3.96</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0574</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>000042</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>中证财通中国可持续发展100 (ECPI ESG) 指数增强A</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>2.67</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>94.67</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>1.78</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0475</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>360010</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>光大保德信均衡精选混合</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>80.90</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>6.17</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0438</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>001219</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>上投摩根动态多因子策略混合</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>2.77</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>94.70</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0438</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>003447</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>英大睿鑫灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>0.73</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>89.87</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>5.73</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0418</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>003446</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>英大睿鑫灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>89.87</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>5.73</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.0407</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>005571</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>中银证券新能源灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>0.82</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>74.65</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>4.57</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.0375</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>001607</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>英大策略优选混合A</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>93.80</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>3.77</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.0343</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>003980</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>中银证券瑞益灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>89.02</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>6.32</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.0329</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>006535</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>恒生前海恒锦裕利混合A</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>1.32</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>29.92</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>1.67</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.0220</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>001967</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>华宝转型升级灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>0.38</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>89.24</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>4.26</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0.0162</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>008050</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>同泰慧择混合A</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>0.49</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>92.16</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>2.89</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>0.0142</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>006536</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>恒生前海恒锦裕利混合C</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>29.92</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>1.67</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>0.0114</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>005572</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>中银证券新能源灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>74.65</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>4.57</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>0.0096</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>006603</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>嘉实互融精选股票</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>91.98</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>0.0083</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>009595</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>山西证券裕盛一年定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>0.32</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>93.91</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>2.60</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>0.0083</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>007397</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>华宝标普沪港深中国增强价值指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>94.52</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>0.0082</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>160725</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>嘉实中证锐联基本面50指数(LOF)C</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>94.50</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>3.41</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>0.0058</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>003981</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>中银证券瑞益灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>89.02</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>6.32</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>0.0051</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>008051</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>同泰慧择混合C</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>92.16</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>2.89</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>0.0035</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>004696</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>东兴量化优享灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>92.01</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>4.83</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>0.0034</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>001608</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>英大策略优选混合C</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>93.80</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>3.77</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>0.0019</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>009487</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>光大保德信瑞和混合C</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>72.94</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>4.26</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>0.0017</t>
-        </is>
-      </c>
-      <c r="H51" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>003184</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>中证财通中国可持续发展100 (ECPI ESG) 指数增强C</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>94.67</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>1.78</t>
-        </is>
-      </c>
-      <c r="G52" t="n">
-        <v>0</v>
-      </c>
-      <c r="H52" t="n">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>